--- a/biology/Médecine/Augustin_Fabre_(médecin)/Augustin_Fabre_(médecin).xlsx
+++ b/biology/Médecine/Augustin_Fabre_(médecin)/Augustin_Fabre_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Augustin_Fabre_(m%C3%A9decin)</t>
+          <t>Augustin_Fabre_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Augustin Fabre, né le 11 décembre 1836 à Marseille et mort dans la même ville le 17 janvier 1884, est un médecin français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Augustin_Fabre_(m%C3%A9decin)</t>
+          <t>Augustin_Fabre_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une des plus riches familles de négociants de Marseille, fils du négociant-armateur César Fabre et d'Élisabeth Long, Augustin Fabre est le frère ainé de l'armateur Cyprien Fabre, fondateur de la Compagnie française de navigation à vapeur Cyprien Fabre &amp; Cie.
 Interne des hôpitaux de Paris en 1858, il devient professeur à l'École de médecine, plusieurs de ses cours sont publiés (Étude sommaire sur l'importation du choléra et les moyens de la prévenir, La Chlorose, etc.). Il collabore activement à l'édition de plusieurs revues : la Gazette des hôpitaux, Marseille-Médical, l'Union médical, etc. 
-Très charitable, il a été surnommé le médecin des pauvres[1].
+Très charitable, il a été surnommé le médecin des pauvres.
 </t>
         </is>
       </c>
